--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JMCG\Desktop\RPA\Sumei_FI004\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JMCG\Documents\GitHub\Sumei_FI004\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B504FC54-F7AB-4FF9-9677-4CFECC9E511F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7257AA8-1938-4C12-9598-003ABA6BCB2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D03926E1-790F-49CC-AD16-F9C54C77127F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D03926E1-790F-49CC-AD16-F9C54C77127F}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="122">
   <si>
     <t>ZBPM_FI004</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1222,24 +1222,24 @@
   </sheetPr>
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="4" max="5" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.25" customWidth="1"/>
-    <col min="9" max="9" width="20.125" customWidth="1"/>
-    <col min="11" max="11" width="11.375" customWidth="1"/>
-    <col min="15" max="15" width="21.75" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.21875" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="15" max="15" width="21.77734375" customWidth="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.375" customWidth="1"/>
-    <col min="24" max="24" width="26.375" customWidth="1"/>
-    <col min="25" max="25" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.375" customWidth="1"/>
-    <col min="29" max="29" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.33203125" customWidth="1"/>
+    <col min="24" max="24" width="26.33203125" customWidth="1"/>
+    <col min="25" max="25" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.33203125" customWidth="1"/>
+    <col min="29" max="29" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="4" customFormat="1" ht="17.25">
+    <row r="2" spans="1:32" s="4" customFormat="1" ht="16.8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="10" customFormat="1" ht="47.25">
+    <row r="3" spans="1:32" s="10" customFormat="1" ht="62.4">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="17.25">
+    <row r="4" spans="1:32" ht="16.8">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="17.25">
+    <row r="5" spans="1:32" ht="33.6">
       <c r="A5" s="2" t="s">
         <v>38</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="17.25">
+    <row r="6" spans="1:32" ht="33.6">
       <c r="A6" s="2" t="s">
         <v>70</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="17.25">
+    <row r="7" spans="1:32" ht="16.8">
       <c r="A7" s="2" t="s">
         <v>74</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" ht="31.2">
       <c r="A8" s="19" t="s">
         <v>77</v>
       </c>
@@ -2476,21 +2476,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E63AEB8-9367-4E24-9A34-818AA8DBC770}">
-  <dimension ref="A1:AF11"/>
+  <dimension ref="A1:AF15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="4" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="17.25">
+    <row r="1" spans="1:32" ht="33.6">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
@@ -3227,6 +3227,198 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:32">
+      <c r="A13" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13">
+        <v>1000</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="22">
+        <v>44557</v>
+      </c>
+      <c r="E13" s="22">
+        <v>44558</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13">
+        <v>31</v>
+      </c>
+      <c r="K13" s="25">
+        <v>1000000016</v>
+      </c>
+      <c r="L13" s="26">
+        <v>22000000</v>
+      </c>
+      <c r="N13">
+        <v>210</v>
+      </c>
+      <c r="O13" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="R13" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="S13" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="U13" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="V13" s="20"/>
+      <c r="X13" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y13" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z13" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" s="20"/>
+      <c r="B14">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="22">
+        <v>44557</v>
+      </c>
+      <c r="E14" s="22">
+        <v>44558</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14">
+        <v>40</v>
+      </c>
+      <c r="K14" s="25">
+        <v>62130002</v>
+      </c>
+      <c r="N14">
+        <v>200</v>
+      </c>
+      <c r="O14" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" t="s">
+        <v>91</v>
+      </c>
+      <c r="R14" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="S14" s="21"/>
+      <c r="U14" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="V14" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="X14" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y14" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z14" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" s="20"/>
+      <c r="B15">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="22">
+        <v>44557</v>
+      </c>
+      <c r="E15" s="22">
+        <v>44558</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15">
+        <v>40</v>
+      </c>
+      <c r="K15">
+        <v>14230000</v>
+      </c>
+      <c r="N15">
+        <v>10</v>
+      </c>
+      <c r="O15" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q15">
+        <v>200</v>
+      </c>
+      <c r="R15" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="S15" s="21"/>
+      <c r="U15" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="V15" s="20"/>
+      <c r="X15" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y15" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z15" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF15">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
